--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2810.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2810.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170705422994839</v>
+        <v>0.896310567855835</v>
       </c>
       <c r="B1">
-        <v>2.439993169953282</v>
+        <v>1.691284537315369</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.235966205596924</v>
       </c>
       <c r="D1">
-        <v>2.365185645717456</v>
+        <v>3.325758934020996</v>
       </c>
       <c r="E1">
-        <v>1.231626705828862</v>
+        <v>0.43682861328125</v>
       </c>
     </row>
   </sheetData>
